--- a/EXPORT_FILES/ВУНЦ=П9_КХ-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П9_КХ-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\backend\my-nest\TEMPLATE_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{43E1DE3C-B39D-49D1-AAD8-A0E2339D509A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1F26357A-C711-40E8-8EF2-06804786073C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="12360" windowWidth="12180" xWindow="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="П9_КХ" r:id="rId1" sheetId="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1502">
   <si>
     <t>ПОСТУПИЛО ЛИЧНЫХ ДЕЛ</t>
   </si>
@@ -383,21 +383,12 @@
     <t>${civil_admission_ЛенВО}</t>
   </si>
   <si>
-    <t>${civil_success_ЛенВО}</t>
-  </si>
-  <si>
     <t>${civil_admission_svy_ЛенВО}</t>
   </si>
   <si>
-    <t>${civil_success_svy_ЛенВО}</t>
-  </si>
-  <si>
     <t>${civil_admission_YA_ЛенВО}</t>
   </si>
   <si>
-    <t>${civil_success_YA_ЛенВО}</t>
-  </si>
-  <si>
     <t>${mil_ЛенВО}</t>
   </si>
   <si>
@@ -413,27 +404,18 @@
     <t>${civil_admission_МВО}</t>
   </si>
   <si>
-    <t>${civil_success_МВО}</t>
-  </si>
-  <si>
     <t>${civil_svy_МВО}</t>
   </si>
   <si>
     <t>${civil_admission_svy_МВО}</t>
   </si>
   <si>
-    <t>${civil_success_svy_МВО}</t>
-  </si>
-  <si>
     <t>${civil_YA_МВО}</t>
   </si>
   <si>
     <t>${civil_admission_YA_МВО}</t>
   </si>
   <si>
-    <t>${civil_success_YA_МВО}</t>
-  </si>
-  <si>
     <t>${mil_МВО}</t>
   </si>
   <si>
@@ -449,27 +431,18 @@
     <t>${civil_admission_ЮВО}</t>
   </si>
   <si>
-    <t>${civil_success_ЮВО}</t>
-  </si>
-  <si>
     <t>${civil_svy_ЮВО}</t>
   </si>
   <si>
     <t>${civil_admission_svy_ЮВО}</t>
   </si>
   <si>
-    <t>${civil_success_svy_ЮВО}</t>
-  </si>
-  <si>
     <t>${civil_YA_ЮВО}</t>
   </si>
   <si>
     <t>${civil_admission_YA_ЮВО}</t>
   </si>
   <si>
-    <t>${civil_success_YA_ЮВО}</t>
-  </si>
-  <si>
     <t>${mil_ЮВО}</t>
   </si>
   <si>
@@ -485,27 +458,18 @@
     <t>${civil_admission_ЦВО}</t>
   </si>
   <si>
-    <t>${civil_success_ЦВО}</t>
-  </si>
-  <si>
     <t>${civil_svy_ЦВО}</t>
   </si>
   <si>
     <t>${civil_admission_svy_ЦВО}</t>
   </si>
   <si>
-    <t>${civil_success_svy_ЦВО}</t>
-  </si>
-  <si>
     <t>${civil_YA_ЦВО}</t>
   </si>
   <si>
     <t>${civil_admission_YA_ЦВО}</t>
   </si>
   <si>
-    <t>${civil_success_YA_ЦВО}</t>
-  </si>
-  <si>
     <t>${mil_ЦВО}</t>
   </si>
   <si>
@@ -521,27 +485,18 @@
     <t>${civil_admission_ВВО}</t>
   </si>
   <si>
-    <t>${civil_success_ВВО}</t>
-  </si>
-  <si>
     <t>${civil_svy_ВВО}</t>
   </si>
   <si>
     <t>${civil_admission_svy_ВВО}</t>
   </si>
   <si>
-    <t>${civil_success_svy_ВВО}</t>
-  </si>
-  <si>
     <t>${civil_YA_ВВО}</t>
   </si>
   <si>
     <t>${civil_admission_YA_ВВО}</t>
   </si>
   <si>
-    <t>${civil_success_YA_ВВО}</t>
-  </si>
-  <si>
     <t>${mil_ВВО}</t>
   </si>
   <si>
@@ -4571,7 +4526,49 @@
     <t>${civil_access_YA_PPO3_ЛенВО}</t>
   </si>
   <si>
-    <t/>
+    <t>${civil_access_ЛенВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_svy_ЛенВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_YA_ЛенВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_МВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_svy_МВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_YA_МВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_ЮВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_svy_ЮВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_YA_ЮВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_ЦВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_svy_ЦВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_YA_ЦВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_ВВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_svy_ВВО}</t>
+  </si>
+  <si>
+    <t>${civil_access_YA_ВВО}</t>
   </si>
 </sst>
 </file>
@@ -5324,188 +5321,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5592,7 +5421,181 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5601,13 +5604,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5616,35 +5613,7 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="181">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="177">
     <dxf>
       <font>
         <condense val="0"/>
@@ -7245,8 +7214,8 @@
   </sheetPr>
   <dimension ref="A1:AL275"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="70">
-      <selection activeCell="F22" sqref="F18:AK22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="70">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" outlineLevelCol="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7269,292 +7238,292 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="30.75" r="1" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
       <c r="AL1" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="55.5" r="2" s="30" spans="1:38" x14ac:dyDescent="0.7">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="121"/>
-      <c r="AK2" s="121"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
       <c r="AL2" s="29"/>
     </row>
     <row customHeight="1" ht="30.75" r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
     </row>
     <row customFormat="1" customHeight="1" ht="35.25" r="4" s="2" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="127"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="85"/>
       <c r="AL4" s="8"/>
     </row>
     <row customFormat="1" customHeight="1" ht="39" r="5" s="2" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="109" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="131" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="132"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="128" t="s">
+      <c r="W5" s="90"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
-      <c r="AI5" s="128"/>
-      <c r="AJ5" s="128"/>
-      <c r="AK5" s="128"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
       <c r="AL5" s="8"/>
     </row>
     <row customFormat="1" customHeight="1" ht="66" r="6" s="2" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A6" s="84"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="142" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="76" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="138" t="s">
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="139"/>
-      <c r="S6" s="140" t="s">
+      <c r="R6" s="97"/>
+      <c r="S6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="123" t="s">
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="128" t="s">
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
       <c r="AL6" s="8"/>
     </row>
     <row customFormat="1" customHeight="1" ht="150.75" r="7" s="2" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
@@ -7564,10 +7533,10 @@
       <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="18" t="s">
         <v>12</v>
       </c>
@@ -7646,10 +7615,10 @@
       <c r="AL7" s="8"/>
     </row>
     <row customFormat="1" customHeight="1" ht="57.75" r="8" s="3" spans="1:38" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="20">
         <f>SUM(C9:C16)</f>
       </c>
@@ -7758,7 +7727,7 @@
       <c r="AL8" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="9" s="3" spans="1:38" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="40" t="s">
         <v>53</v>
       </c>
@@ -7870,7 +7839,7 @@
       <c r="AL9" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="10" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="105"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="50" t="s">
         <v>48</v>
       </c>
@@ -7982,7 +7951,7 @@
       <c r="AL10" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="11" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="105"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="40" t="s">
         <v>46</v>
       </c>
@@ -8094,7 +8063,7 @@
       <c r="AL11" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="12" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="105"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="50" t="s">
         <v>51</v>
       </c>
@@ -8206,7 +8175,7 @@
       <c r="AL12" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="13" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A13" s="105"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="40" t="s">
         <v>47</v>
       </c>
@@ -8318,7 +8287,7 @@
       <c r="AL13" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="14" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="105"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="50" t="s">
         <v>52</v>
       </c>
@@ -8430,7 +8399,7 @@
       <c r="AL14" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="15" s="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="105"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="40" t="s">
         <v>49</v>
       </c>
@@ -8542,7 +8511,7 @@
       <c r="AL15" s="10"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="16" s="3" spans="1:38" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="106"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="51" t="s">
         <v>50</v>
       </c>
@@ -8654,7 +8623,7 @@
       <c r="AL16" s="10"/>
     </row>
     <row customFormat="1" ht="23.4" r="17" s="5" spans="1:38" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="116" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -8768,7 +8737,7 @@
       <c r="AL17" s="14"/>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="33" t="s">
         <v>53</v>
       </c>
@@ -8778,8 +8747,8 @@
       <c r="D18" s="73">
         <v>0</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>1502</v>
+      <c r="E18" s="21">
+        <v>0</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
@@ -8879,7 +8848,7 @@
       </c>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="60" t="s">
         <v>48</v>
       </c>
@@ -8920,7 +8889,7 @@
       <c r="AK19" s="61"/>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="33" t="s">
         <v>46</v>
       </c>
@@ -8930,8 +8899,8 @@
       <c r="D20" s="73">
         <v>0</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>1502</v>
+      <c r="E20" s="21">
+        <v>0</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
@@ -9031,7 +9000,7 @@
       </c>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="62" t="s">
         <v>51</v>
       </c>
@@ -9072,7 +9041,7 @@
       <c r="AK21" s="63"/>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="33" t="s">
         <v>47</v>
       </c>
@@ -9082,8 +9051,8 @@
       <c r="D22" s="73">
         <v>0</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>1502</v>
+      <c r="E22" s="21">
+        <v>0</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -9183,7 +9152,7 @@
       </c>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="65" t="s">
         <v>52</v>
       </c>
@@ -9224,21 +9193,21 @@
       <c r="AK23" s="64"/>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
@@ -9268,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="11">
         <v>0</v>
@@ -9280,19 +9249,19 @@
         <v>0</v>
       </c>
       <c r="T24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="11">
         <v>0</v>
       </c>
       <c r="V24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="11">
         <v>0</v>
@@ -9335,7 +9304,7 @@
       </c>
     </row>
     <row customHeight="1" ht="48" outlineLevel="2" r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="60" t="s">
         <v>50</v>
       </c>
@@ -9376,7 +9345,7 @@
       <c r="AK25" s="61"/>
     </row>
     <row customFormat="1" ht="22.8" r="26" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="113" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -9490,97 +9459,97 @@
       <c r="AL26" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="27" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="72">
+        <v>4</v>
+      </c>
+      <c r="D27" s="73">
+        <v>3</v>
+      </c>
+      <c r="E27" s="21">
+        <v>3</v>
+      </c>
+      <c r="F27" s="11">
+        <v>3</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>3</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>3</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>3</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>3</v>
+      </c>
+      <c r="W27" s="11">
+        <v>3</v>
+      </c>
+      <c r="X27" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="73">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>0</v>
-      </c>
-      <c r="R27" s="11">
-        <v>0</v>
-      </c>
-      <c r="S27" s="11">
-        <v>0</v>
-      </c>
-      <c r="T27" s="11">
-        <v>0</v>
-      </c>
-      <c r="U27" s="11">
-        <v>0</v>
-      </c>
-      <c r="V27" s="11">
-        <v>0</v>
-      </c>
-      <c r="W27" s="11">
-        <v>0</v>
-      </c>
-      <c r="X27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="11">
-        <v>0</v>
-      </c>
       <c r="AF27" s="11">
         <v>0</v>
       </c>
@@ -9591,18 +9560,18 @@
         <v>0</v>
       </c>
       <c r="AI27" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ27" s="11">
         <v>0</v>
       </c>
       <c r="AK27" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="28" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="60" t="s">
         <v>48</v>
       </c>
@@ -9644,21 +9613,21 @@
       <c r="AL28" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="29" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="33" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="73">
-        <v>0</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>1502</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
       </c>
       <c r="F29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
@@ -9679,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="11">
         <v>0</v>
@@ -9691,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="11">
         <v>0</v>
@@ -9700,19 +9669,19 @@
         <v>0</v>
       </c>
       <c r="T29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="11">
         <v>0</v>
       </c>
       <c r="V29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
@@ -9748,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="11">
         <v>0</v>
@@ -9756,7 +9725,7 @@
       <c r="AL29" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="30" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="62" t="s">
         <v>51</v>
       </c>
@@ -9798,21 +9767,21 @@
       <c r="AL30" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="31" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="73">
-        <v>0</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>1502</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
@@ -9836,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="11">
         <v>0</v>
@@ -9845,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="11">
         <v>0</v>
@@ -9854,19 +9823,19 @@
         <v>0</v>
       </c>
       <c r="T31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="11">
         <v>0</v>
       </c>
       <c r="V31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="11">
         <v>0</v>
@@ -9905,12 +9874,12 @@
         <v>0</v>
       </c>
       <c r="AK31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="32" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="65" t="s">
         <v>52</v>
       </c>
@@ -9952,18 +9921,18 @@
       <c r="AL32" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="33" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -9972,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11">
         <v>0</v>
@@ -9996,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="11">
         <v>0</v>
@@ -10008,19 +9977,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="11">
         <v>0</v>
       </c>
       <c r="V33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
@@ -10053,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="11">
         <v>0</v>
@@ -10064,7 +10033,7 @@
       <c r="AL33" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="34" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="60" t="s">
         <v>50</v>
       </c>
@@ -10106,7 +10075,7 @@
       <c r="AL34" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="35" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="124" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="32" t="s">
@@ -10220,7 +10189,7 @@
       <c r="AL35" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="36" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="33" t="s">
         <v>53</v>
       </c>
@@ -10230,8 +10199,8 @@
       <c r="D36" s="73">
         <v>0</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>1502</v>
+      <c r="E36" s="21">
+        <v>0</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -10332,7 +10301,7 @@
       <c r="AL36" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="37" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="60" t="s">
         <v>48</v>
       </c>
@@ -10374,7 +10343,7 @@
       <c r="AL37" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="38" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="33" t="s">
         <v>46</v>
       </c>
@@ -10384,8 +10353,8 @@
       <c r="D38" s="73">
         <v>0</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>1502</v>
+      <c r="E38" s="21">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -10486,7 +10455,7 @@
       <c r="AL38" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="39" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="62" t="s">
         <v>51</v>
       </c>
@@ -10528,7 +10497,7 @@
       <c r="AL39" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="40" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="33" t="s">
         <v>47</v>
       </c>
@@ -10538,8 +10507,8 @@
       <c r="D40" s="73">
         <v>0</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>1502</v>
+      <c r="E40" s="21">
+        <v>0</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -10640,7 +10609,7 @@
       <c r="AL40" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="41" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="65" t="s">
         <v>52</v>
       </c>
@@ -10682,21 +10651,21 @@
       <c r="AL41" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="42" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
@@ -10720,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="11">
         <v>0</v>
@@ -10729,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="11">
         <v>0</v>
@@ -10738,19 +10707,19 @@
         <v>0</v>
       </c>
       <c r="T42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="11">
         <v>0</v>
       </c>
       <c r="V42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="11">
         <v>0</v>
@@ -10786,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="11">
         <v>0</v>
@@ -10794,7 +10763,7 @@
       <c r="AL42" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="43" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="60" t="s">
         <v>50</v>
       </c>
@@ -10836,7 +10805,7 @@
       <c r="AL43" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="44" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="119" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="42" t="s">
@@ -10950,7 +10919,7 @@
       <c r="AL44" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="45" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="33" t="s">
         <v>53</v>
       </c>
@@ -10960,8 +10929,8 @@
       <c r="D45" s="73">
         <v>0</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>1502</v>
+      <c r="E45" s="21">
+        <v>0</v>
       </c>
       <c r="F45" s="11">
         <v>0</v>
@@ -11062,7 +11031,7 @@
       <c r="AL45" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="46" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="60" t="s">
         <v>48</v>
       </c>
@@ -11104,7 +11073,7 @@
       <c r="AL46" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="47" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="33" t="s">
         <v>46</v>
       </c>
@@ -11114,8 +11083,8 @@
       <c r="D47" s="73">
         <v>0</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>1502</v>
+      <c r="E47" s="21">
+        <v>0</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
@@ -11216,7 +11185,7 @@
       <c r="AL47" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="48" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="62" t="s">
         <v>51</v>
       </c>
@@ -11258,7 +11227,7 @@
       <c r="AL48" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="49" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="33" t="s">
         <v>47</v>
       </c>
@@ -11268,8 +11237,8 @@
       <c r="D49" s="73">
         <v>0</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>1502</v>
+      <c r="E49" s="21">
+        <v>0</v>
       </c>
       <c r="F49" s="11">
         <v>0</v>
@@ -11370,7 +11339,7 @@
       <c r="AL49" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="50" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A50" s="118"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="65" t="s">
         <v>52</v>
       </c>
@@ -11412,21 +11381,21 @@
       <c r="AL50" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="51" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
@@ -11435,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="11">
         <v>0</v>
@@ -11447,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="11">
         <v>0</v>
@@ -11459,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="11">
         <v>0</v>
@@ -11468,19 +11437,19 @@
         <v>0</v>
       </c>
       <c r="T51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="11">
         <v>0</v>
       </c>
       <c r="V51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
@@ -11519,12 +11488,12 @@
         <v>0</v>
       </c>
       <c r="AK51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="52" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="60" t="s">
         <v>50</v>
       </c>
@@ -11566,7 +11535,7 @@
       <c r="AL52" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="53" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="105" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -11680,18 +11649,18 @@
       <c r="AL53" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="54" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="73">
         <v>0</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>1502</v>
+      <c r="E54" s="21">
+        <v>0</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
@@ -11792,7 +11761,7 @@
       <c r="AL54" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="55" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A55" s="103"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="60" t="s">
         <v>48</v>
       </c>
@@ -11834,7 +11803,7 @@
       <c r="AL55" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="56" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A56" s="103"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="33" t="s">
         <v>46</v>
       </c>
@@ -11844,8 +11813,8 @@
       <c r="D56" s="73">
         <v>0</v>
       </c>
-      <c r="E56" s="21" t="s">
-        <v>1502</v>
+      <c r="E56" s="21">
+        <v>0</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
@@ -11946,7 +11915,7 @@
       <c r="AL56" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="57" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="62" t="s">
         <v>51</v>
       </c>
@@ -11988,7 +11957,7 @@
       <c r="AL57" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="58" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A58" s="103"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="33" t="s">
         <v>47</v>
       </c>
@@ -11998,8 +11967,8 @@
       <c r="D58" s="73">
         <v>0</v>
       </c>
-      <c r="E58" s="21" t="s">
-        <v>1502</v>
+      <c r="E58" s="21">
+        <v>0</v>
       </c>
       <c r="F58" s="11">
         <v>0</v>
@@ -12100,7 +12069,7 @@
       <c r="AL58" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="59" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A59" s="103"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="65" t="s">
         <v>52</v>
       </c>
@@ -12142,7 +12111,7 @@
       <c r="AL59" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="60" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A60" s="103"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="33" t="s">
         <v>49</v>
       </c>
@@ -12254,7 +12223,7 @@
       <c r="AL60" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="61" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A61" s="104"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="60" t="s">
         <v>50</v>
       </c>
@@ -12296,7 +12265,7 @@
       <c r="AL61" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="62" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="108" t="s">
         <v>33</v>
       </c>
       <c r="B62" s="23" t="s">
@@ -12410,7 +12379,7 @@
       <c r="AL62" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="63" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
+      <c r="A63" s="109"/>
       <c r="B63" s="33" t="s">
         <v>49</v>
       </c>
@@ -12522,7 +12491,7 @@
       <c r="AL63" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="64" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
+      <c r="A64" s="110"/>
       <c r="B64" s="60" t="s">
         <v>50</v>
       </c>
@@ -12564,7 +12533,7 @@
       <c r="AL64" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="65" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="105" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -12678,7 +12647,7 @@
       <c r="AL65" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="66" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="103"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="33" t="s">
         <v>49</v>
       </c>
@@ -12790,7 +12759,7 @@
       <c r="AL66" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="67" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="104"/>
+      <c r="A67" s="107"/>
       <c r="B67" s="60" t="s">
         <v>50</v>
       </c>
@@ -12832,7 +12801,7 @@
       <c r="AL67" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="68" s="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="124" t="s">
         <v>35</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -12946,7 +12915,7 @@
       <c r="AL68" s="15"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="69" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
+      <c r="A69" s="125"/>
       <c r="B69" s="33" t="s">
         <v>49</v>
       </c>
@@ -13058,7 +13027,7 @@
       <c r="AL69" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="70" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
+      <c r="A70" s="126"/>
       <c r="B70" s="60" t="s">
         <v>50</v>
       </c>
@@ -13100,7 +13069,7 @@
       <c r="AL70" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="71" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="127" t="s">
         <v>36</v>
       </c>
       <c r="B71" s="26" t="s">
@@ -13214,7 +13183,7 @@
       <c r="AL71" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="72" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
+      <c r="A72" s="128"/>
       <c r="B72" s="33" t="s">
         <v>49</v>
       </c>
@@ -13326,7 +13295,7 @@
       <c r="AL72" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="73" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
+      <c r="A73" s="129"/>
       <c r="B73" s="60" t="s">
         <v>50</v>
       </c>
@@ -13368,7 +13337,7 @@
       <c r="AL73" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="74" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A74" s="99" t="s">
+      <c r="A74" s="108" t="s">
         <v>37</v>
       </c>
       <c r="B74" s="25" t="s">
@@ -13482,7 +13451,7 @@
       <c r="AL74" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="75" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
+      <c r="A75" s="109"/>
       <c r="B75" s="33" t="s">
         <v>49</v>
       </c>
@@ -13594,7 +13563,7 @@
       <c r="AL75" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="76" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="101"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="60" t="s">
         <v>50</v>
       </c>
@@ -13636,7 +13605,7 @@
       <c r="AL76" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="77" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="127" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="26" t="s">
@@ -13750,7 +13719,7 @@
       <c r="AL77" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="78" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
+      <c r="A78" s="128"/>
       <c r="B78" s="33" t="s">
         <v>49</v>
       </c>
@@ -13862,7 +13831,7 @@
       <c r="AL78" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="79" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="60" t="s">
         <v>50</v>
       </c>
@@ -13904,7 +13873,7 @@
       <c r="AL79" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="80" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="140" t="s">
         <v>55</v>
       </c>
       <c r="B80" s="27" t="s">
@@ -14018,7 +13987,7 @@
       <c r="AL80" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="81" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
+      <c r="A81" s="141"/>
       <c r="B81" s="33" t="s">
         <v>49</v>
       </c>
@@ -14130,7 +14099,7 @@
       <c r="AL81" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="82" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
+      <c r="A82" s="142"/>
       <c r="B82" s="60" t="s">
         <v>50</v>
       </c>
@@ -14172,7 +14141,7 @@
       <c r="AL82" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="83" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="123" t="s">
         <v>56</v>
       </c>
       <c r="B83" s="57" t="s">
@@ -14286,7 +14255,7 @@
       <c r="AL83" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="84" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
+      <c r="A84" s="123"/>
       <c r="B84" s="33" t="s">
         <v>49</v>
       </c>
@@ -14398,7 +14367,7 @@
       <c r="AL84" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="85" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
+      <c r="A85" s="123"/>
       <c r="B85" s="60" t="s">
         <v>50</v>
       </c>
@@ -14440,7 +14409,7 @@
       <c r="AL85" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="86" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A86" s="81" t="s">
+      <c r="A86" s="122" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="58" t="s">
@@ -14554,7 +14523,7 @@
       <c r="AL86" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="87" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A87" s="81"/>
+      <c r="A87" s="122"/>
       <c r="B87" s="33" t="s">
         <v>49</v>
       </c>
@@ -14666,7 +14635,7 @@
       <c r="AL87" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="88" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
+      <c r="A88" s="122"/>
       <c r="B88" s="60" t="s">
         <v>50</v>
       </c>
@@ -14708,7 +14677,7 @@
       <c r="AL88" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="89" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="123" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="57" t="s">
@@ -14822,7 +14791,7 @@
       <c r="AL89" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="90" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A90" s="82"/>
+      <c r="A90" s="123"/>
       <c r="B90" s="33" t="s">
         <v>49</v>
       </c>
@@ -14934,7 +14903,7 @@
       <c r="AL90" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="91" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A91" s="82"/>
+      <c r="A91" s="123"/>
       <c r="B91" s="60" t="s">
         <v>50</v>
       </c>
@@ -14976,7 +14945,7 @@
       <c r="AL91" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="92" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="122" t="s">
         <v>57</v>
       </c>
       <c r="B92" s="58" t="s">
@@ -15090,7 +15059,7 @@
       <c r="AL92" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="93" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A93" s="81"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="33" t="s">
         <v>49</v>
       </c>
@@ -15202,7 +15171,7 @@
       <c r="AL93" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="94" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="60" t="s">
         <v>50</v>
       </c>
@@ -15244,7 +15213,7 @@
       <c r="AL94" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="95" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="123" t="s">
         <v>42</v>
       </c>
       <c r="B95" s="57" t="s">
@@ -15358,7 +15327,7 @@
       <c r="AL95" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="96" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
+      <c r="A96" s="123"/>
       <c r="B96" s="33" t="s">
         <v>49</v>
       </c>
@@ -15470,7 +15439,7 @@
       <c r="AL96" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="97" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
+      <c r="A97" s="123"/>
       <c r="B97" s="60" t="s">
         <v>50</v>
       </c>
@@ -15512,7 +15481,7 @@
       <c r="AL97" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="20.25" outlineLevel="1" r="98" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="122" t="s">
         <v>45</v>
       </c>
       <c r="B98" s="58" t="s">
@@ -15626,7 +15595,7 @@
       <c r="AL98" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="99" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
+      <c r="A99" s="122"/>
       <c r="B99" s="33" t="s">
         <v>49</v>
       </c>
@@ -15738,7 +15707,7 @@
       <c r="AL99" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="100" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A100" s="81"/>
+      <c r="A100" s="122"/>
       <c r="B100" s="60" t="s">
         <v>50</v>
       </c>
@@ -15780,7 +15749,7 @@
       <c r="AL100" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="101" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="123" t="s">
         <v>38</v>
       </c>
       <c r="B101" s="57" t="s">
@@ -15894,7 +15863,7 @@
       <c r="AL101" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="102" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
+      <c r="A102" s="123"/>
       <c r="B102" s="33" t="s">
         <v>49</v>
       </c>
@@ -16006,7 +15975,7 @@
       <c r="AL102" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" outlineLevel="1" r="103" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A103" s="82"/>
+      <c r="A103" s="123"/>
       <c r="B103" s="60" t="s">
         <v>50</v>
       </c>
@@ -16048,7 +16017,7 @@
       <c r="AL103" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="104" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A104" s="81" t="s">
+      <c r="A104" s="122" t="s">
         <v>58</v>
       </c>
       <c r="B104" s="75" t="s">
@@ -16162,7 +16131,7 @@
       <c r="AL104" s="22"/>
     </row>
     <row customFormat="1" ht="126" r="105" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A105" s="81"/>
+      <c r="A105" s="122"/>
       <c r="B105" s="33" t="s">
         <v>49</v>
       </c>
@@ -16274,7 +16243,7 @@
       <c r="AL105" s="22"/>
     </row>
     <row customFormat="1" ht="40.799999999999997" r="106" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A106" s="81"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="60" t="s">
         <v>50</v>
       </c>
@@ -16316,7 +16285,7 @@
       <c r="AL106" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="107" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A107" s="82" t="s">
+      <c r="A107" s="123" t="s">
         <v>59</v>
       </c>
       <c r="B107" s="74" t="s">
@@ -16430,7 +16399,7 @@
       <c r="AL107" s="22"/>
     </row>
     <row customFormat="1" ht="105" r="108" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A108" s="82"/>
+      <c r="A108" s="123"/>
       <c r="B108" s="33" t="s">
         <v>49</v>
       </c>
@@ -16542,7 +16511,7 @@
       <c r="AL108" s="22"/>
     </row>
     <row customFormat="1" ht="40.799999999999997" r="109" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A109" s="82"/>
+      <c r="A109" s="123"/>
       <c r="B109" s="60" t="s">
         <v>50</v>
       </c>
@@ -16584,7 +16553,7 @@
       <c r="AL109" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="110" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A110" s="81" t="s">
+      <c r="A110" s="122" t="s">
         <v>60</v>
       </c>
       <c r="B110" s="75" t="s">
@@ -16698,7 +16667,7 @@
       <c r="AL110" s="22"/>
     </row>
     <row customFormat="1" ht="105" r="111" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A111" s="81"/>
+      <c r="A111" s="122"/>
       <c r="B111" s="33" t="s">
         <v>49</v>
       </c>
@@ -16810,7 +16779,7 @@
       <c r="AL111" s="22"/>
     </row>
     <row customFormat="1" ht="40.799999999999997" r="112" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A112" s="81"/>
+      <c r="A112" s="122"/>
       <c r="B112" s="60" t="s">
         <v>50</v>
       </c>
@@ -16852,7 +16821,7 @@
       <c r="AL112" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="113" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A113" s="82" t="s">
+      <c r="A113" s="123" t="s">
         <v>61</v>
       </c>
       <c r="B113" s="74" t="s">
@@ -16966,7 +16935,7 @@
       <c r="AL113" s="22"/>
     </row>
     <row customFormat="1" ht="126" r="114" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A114" s="82"/>
+      <c r="A114" s="123"/>
       <c r="B114" s="33" t="s">
         <v>49</v>
       </c>
@@ -17078,7 +17047,7 @@
       <c r="AL114" s="22"/>
     </row>
     <row customFormat="1" ht="40.799999999999997" r="115" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A115" s="82"/>
+      <c r="A115" s="123"/>
       <c r="B115" s="60" t="s">
         <v>50</v>
       </c>
@@ -17120,7 +17089,7 @@
       <c r="AL115" s="22"/>
     </row>
     <row customFormat="1" ht="22.8" r="116" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A116" s="81" t="s">
+      <c r="A116" s="122" t="s">
         <v>63</v>
       </c>
       <c r="B116" s="58" t="s">
@@ -17234,7 +17203,7 @@
       <c r="AL116" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" r="117" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A117" s="81"/>
+      <c r="A117" s="122"/>
       <c r="B117" s="33" t="s">
         <v>49</v>
       </c>
@@ -17346,7 +17315,7 @@
       <c r="AL117" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" r="118" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A118" s="81"/>
+      <c r="A118" s="122"/>
       <c r="B118" s="60" t="s">
         <v>50</v>
       </c>
@@ -17388,7 +17357,7 @@
       <c r="AL118" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="119" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="123" t="s">
         <v>62</v>
       </c>
       <c r="B119" s="57" t="s">
@@ -17502,7 +17471,7 @@
       <c r="AL119" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" r="120" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A120" s="82"/>
+      <c r="A120" s="123"/>
       <c r="B120" s="33" t="s">
         <v>53</v>
       </c>
@@ -17614,7 +17583,7 @@
       <c r="AL120" s="22"/>
     </row>
     <row customFormat="1" customHeight="1" ht="48" r="121" s="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A121" s="82"/>
+      <c r="A121" s="123"/>
       <c r="B121" s="60" t="s">
         <v>48</v>
       </c>
@@ -23821,6 +23790,39 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="49">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A44:A52"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="L6:L7"/>
@@ -23837,842 +23839,809 @@
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A85"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 C35 C53 C62 C65 C68 C71 C74 E74:I74 E71:I71 E68:I68 E65:I65 E62:I62 E53:I53 E35:I35 E26:I26 E44 E17:I17 C8:I8 L26:AK26 L35:AK35 L53:AK53 L62:AK62 L65:AK65 L68:AK68 L71:AK71 L74:AK74 L8:AK8 L44:AK44 L77:AK77 L80:AK80 L83:AK83 L17:AK17 F86:AK86 E116:AK116 E119:AK119 F121:AK121 F101:AK101 F98:AK98 F95:AK95 F92:AK92 F89:AK89 C9:AK16 C17:C26 E18:AK25 F27:AK34 F36:AK43 F45:AK52 F54:AK61">
-    <cfRule dxfId="180" operator="equal" priority="2414" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="176" operator="equal" priority="2414" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:I44">
-    <cfRule dxfId="179" operator="equal" priority="1269" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="175" operator="equal" priority="1269" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104 E104">
-    <cfRule dxfId="178" operator="equal" priority="680" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="174" operator="equal" priority="680" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107 E107">
-    <cfRule dxfId="177" operator="equal" priority="660" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="173" operator="equal" priority="660" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110 E110">
-    <cfRule dxfId="176" operator="equal" priority="640" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="172" operator="equal" priority="640" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113 E113">
-    <cfRule dxfId="175" operator="equal" priority="620" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="171" operator="equal" priority="620" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77 E77:I77">
-    <cfRule dxfId="174" operator="equal" priority="580" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="170" operator="equal" priority="580" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80 E80:I80">
-    <cfRule dxfId="173" operator="equal" priority="579" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="169" operator="equal" priority="579" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83 E83:I83">
-    <cfRule dxfId="172" operator="equal" priority="578" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="168" operator="equal" priority="578" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86 E86">
-    <cfRule dxfId="171" operator="equal" priority="569" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="167" operator="equal" priority="569" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44 D35 D53 D62 D65 D68 D71 D74 D17:D26">
-    <cfRule dxfId="170" operator="equal" priority="561" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="166" operator="equal" priority="561" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule dxfId="169" operator="equal" priority="500" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="165" operator="equal" priority="500" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule dxfId="168" operator="equal" priority="499" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="164" operator="equal" priority="499" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule dxfId="167" operator="equal" priority="498" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="163" operator="equal" priority="498" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule dxfId="166" operator="equal" priority="497" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="162" operator="equal" priority="497" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule dxfId="165" operator="equal" priority="496" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="161" operator="equal" priority="496" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule dxfId="164" operator="equal" priority="495" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="160" operator="equal" priority="495" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule dxfId="163" operator="equal" priority="494" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="159" operator="equal" priority="494" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule dxfId="162" operator="equal" priority="493" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="158" operator="equal" priority="493" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K8 J74:K74 J71:K71 J68:K68 J65:K65 J62:K62 J53:K53 J35:K35 J26:K26 J17:K17">
-    <cfRule dxfId="161" operator="equal" priority="485" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="157" operator="equal" priority="485" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:K83">
-    <cfRule dxfId="160" operator="equal" priority="417" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="156" operator="equal" priority="417" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92 E92">
-    <cfRule dxfId="159" operator="equal" priority="408" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="155" operator="equal" priority="408" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule dxfId="158" operator="equal" priority="407" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="154" operator="equal" priority="407" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98 E98">
-    <cfRule dxfId="157" operator="equal" priority="405" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="153" operator="equal" priority="405" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89 E89">
-    <cfRule dxfId="156" operator="equal" priority="399" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="152" operator="equal" priority="399" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule dxfId="155" operator="equal" priority="398" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="151" operator="equal" priority="398" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:K77">
-    <cfRule dxfId="154" operator="equal" priority="419" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="150" operator="equal" priority="419" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K44">
-    <cfRule dxfId="153" operator="equal" priority="439" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="149" operator="equal" priority="439" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101 E101">
-    <cfRule dxfId="152" operator="equal" priority="393" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="148" operator="equal" priority="393" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:K80">
-    <cfRule dxfId="151" operator="equal" priority="418" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="147" operator="equal" priority="418" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule dxfId="150" operator="equal" priority="404" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="146" operator="equal" priority="404" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule dxfId="149" operator="equal" priority="395" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="145" operator="equal" priority="395" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule dxfId="148" operator="equal" priority="402" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="144" operator="equal" priority="402" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule dxfId="147" operator="equal" priority="401" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="143" operator="equal" priority="401" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95 E95">
-    <cfRule dxfId="146" operator="equal" priority="396" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="142" operator="equal" priority="396" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule dxfId="145" operator="equal" priority="392" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="141" operator="equal" priority="392" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule dxfId="144" operator="equal" priority="390" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="140" operator="equal" priority="390" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule dxfId="143" operator="equal" priority="389" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="139" operator="equal" priority="389" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34 E34">
-    <cfRule dxfId="142" operator="equal" priority="322" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="138" operator="equal" priority="322" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule dxfId="141" operator="equal" priority="318" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="137" operator="equal" priority="318" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43 E43">
-    <cfRule dxfId="140" operator="equal" priority="314" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="136" operator="equal" priority="314" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule dxfId="139" operator="equal" priority="310" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="135" operator="equal" priority="310" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52 E52">
-    <cfRule dxfId="138" operator="equal" priority="306" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="134" operator="equal" priority="306" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule dxfId="137" operator="equal" priority="302" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="133" operator="equal" priority="302" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61 E61">
-    <cfRule dxfId="136" operator="equal" priority="298" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="132" operator="equal" priority="298" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule dxfId="135" operator="equal" priority="294" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="131" operator="equal" priority="294" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121 E121">
-    <cfRule dxfId="134" operator="equal" priority="172" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="130" operator="equal" priority="172" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule dxfId="133" operator="equal" priority="170" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="129" operator="equal" priority="170" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:AK118">
-    <cfRule dxfId="132" operator="equal" priority="169" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="128" operator="equal" priority="169" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118 E118">
-    <cfRule dxfId="131" operator="equal" priority="167" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="127" operator="equal" priority="167" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule dxfId="130" operator="equal" priority="165" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="126" operator="equal" priority="165" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:AK103">
-    <cfRule dxfId="129" operator="equal" priority="164" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="125" operator="equal" priority="164" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103 E103">
-    <cfRule dxfId="128" operator="equal" priority="162" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="124" operator="equal" priority="162" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule dxfId="127" operator="equal" priority="160" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="123" operator="equal" priority="160" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:AK100">
-    <cfRule dxfId="126" operator="equal" priority="159" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="122" operator="equal" priority="159" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100 E100">
-    <cfRule dxfId="125" operator="equal" priority="157" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="121" operator="equal" priority="157" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule dxfId="124" operator="equal" priority="155" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="120" operator="equal" priority="155" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:AK97">
-    <cfRule dxfId="123" operator="equal" priority="154" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="119" operator="equal" priority="154" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97 E97">
-    <cfRule dxfId="122" operator="equal" priority="152" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="118" operator="equal" priority="152" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule dxfId="121" operator="equal" priority="150" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="117" operator="equal" priority="150" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:AK94">
-    <cfRule dxfId="120" operator="equal" priority="149" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="116" operator="equal" priority="149" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94 E94">
-    <cfRule dxfId="119" operator="equal" priority="147" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="115" operator="equal" priority="147" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule dxfId="118" operator="equal" priority="145" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="114" operator="equal" priority="145" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:AK91">
-    <cfRule dxfId="117" operator="equal" priority="144" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="113" operator="equal" priority="144" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91 E91">
-    <cfRule dxfId="116" operator="equal" priority="142" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="112" operator="equal" priority="142" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule dxfId="115" operator="equal" priority="140" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="111" operator="equal" priority="140" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:AK88">
-    <cfRule dxfId="114" operator="equal" priority="139" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="110" operator="equal" priority="139" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88 E88">
-    <cfRule dxfId="113" operator="equal" priority="137" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="109" operator="equal" priority="137" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule dxfId="112" operator="equal" priority="135" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="108" operator="equal" priority="135" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:AK85">
-    <cfRule dxfId="111" operator="equal" priority="134" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="107" operator="equal" priority="134" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85 E85">
-    <cfRule dxfId="110" operator="equal" priority="132" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="106" operator="equal" priority="132" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule dxfId="109" operator="equal" priority="130" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="105" operator="equal" priority="130" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:AK82">
-    <cfRule dxfId="108" operator="equal" priority="129" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="104" operator="equal" priority="129" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82 E82">
-    <cfRule dxfId="107" operator="equal" priority="127" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="103" operator="equal" priority="127" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule dxfId="106" operator="equal" priority="125" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="102" operator="equal" priority="125" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:AK79">
-    <cfRule dxfId="105" operator="equal" priority="124" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="101" operator="equal" priority="124" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79 E79">
-    <cfRule dxfId="104" operator="equal" priority="122" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="100" operator="equal" priority="122" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule dxfId="103" operator="equal" priority="120" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="99" operator="equal" priority="120" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:AK76">
-    <cfRule dxfId="102" operator="equal" priority="119" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="98" operator="equal" priority="119" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76 E76">
-    <cfRule dxfId="101" operator="equal" priority="117" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="97" operator="equal" priority="117" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule dxfId="100" operator="equal" priority="115" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="96" operator="equal" priority="115" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:AK73">
-    <cfRule dxfId="99" operator="equal" priority="114" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="95" operator="equal" priority="114" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73 E73">
-    <cfRule dxfId="98" operator="equal" priority="112" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="94" operator="equal" priority="112" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule dxfId="97" operator="equal" priority="110" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="93" operator="equal" priority="110" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:AK70">
-    <cfRule dxfId="96" operator="equal" priority="109" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="92" operator="equal" priority="109" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70 E70">
-    <cfRule dxfId="95" operator="equal" priority="107" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="91" operator="equal" priority="107" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule dxfId="94" operator="equal" priority="105" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="90" operator="equal" priority="105" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:AK67">
-    <cfRule dxfId="93" operator="equal" priority="104" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="89" operator="equal" priority="104" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67 E67">
-    <cfRule dxfId="92" operator="equal" priority="102" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="88" operator="equal" priority="102" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule dxfId="91" operator="equal" priority="100" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="87" operator="equal" priority="100" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:AK64">
-    <cfRule dxfId="90" operator="equal" priority="99" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="86" operator="equal" priority="99" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64 E64">
-    <cfRule dxfId="89" operator="equal" priority="97" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="85" operator="equal" priority="97" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule dxfId="88" operator="equal" priority="95" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="84" operator="equal" priority="95" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115:AK115">
-    <cfRule dxfId="87" operator="equal" priority="94" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="83" operator="equal" priority="94" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115 E115">
-    <cfRule dxfId="86" operator="equal" priority="92" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="82" operator="equal" priority="92" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule dxfId="85" operator="equal" priority="90" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="81" operator="equal" priority="90" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:AK112">
-    <cfRule dxfId="84" operator="equal" priority="89" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="80" operator="equal" priority="89" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112 E112">
-    <cfRule dxfId="83" operator="equal" priority="87" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="79" operator="equal" priority="87" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule dxfId="82" operator="equal" priority="85" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="78" operator="equal" priority="85" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:AK109">
-    <cfRule dxfId="81" operator="equal" priority="84" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="77" operator="equal" priority="84" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109 E109">
-    <cfRule dxfId="80" operator="equal" priority="82" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="76" operator="equal" priority="82" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule dxfId="79" operator="equal" priority="80" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="75" operator="equal" priority="80" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:AK106">
-    <cfRule dxfId="78" operator="equal" priority="79" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="74" operator="equal" priority="79" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106 E106">
-    <cfRule dxfId="77" operator="equal" priority="77" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="73" operator="equal" priority="77" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule dxfId="76" operator="equal" priority="75" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="72" operator="equal" priority="75" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:AK110">
-    <cfRule dxfId="75" operator="equal" priority="74" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="71" operator="equal" priority="74" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:AK104">
-    <cfRule dxfId="74" operator="equal" priority="73" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="70" operator="equal" priority="73" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:AK107">
-    <cfRule dxfId="73" operator="equal" priority="72" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="69" operator="equal" priority="72" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113:AK113">
-    <cfRule dxfId="72" operator="equal" priority="71" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="68" operator="equal" priority="71" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33 C27:C33">
-    <cfRule dxfId="71" operator="equal" priority="70" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="67" operator="equal" priority="70" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D33">
-    <cfRule dxfId="70" operator="equal" priority="69" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="66" operator="equal" priority="69" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E42 C36:C42">
-    <cfRule dxfId="69" operator="equal" priority="68" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="65" operator="equal" priority="68" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D42">
-    <cfRule dxfId="68" operator="equal" priority="67" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="64" operator="equal" priority="67" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E51 C45:C51">
-    <cfRule dxfId="67" operator="equal" priority="66" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="63" operator="equal" priority="66" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D51">
-    <cfRule dxfId="66" operator="equal" priority="65" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="62" operator="equal" priority="65" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E60 C54:C60">
-    <cfRule dxfId="65" operator="equal" priority="64" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="61" operator="equal" priority="64" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D60">
-    <cfRule dxfId="64" operator="equal" priority="63" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="60" operator="equal" priority="63" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63 C63">
-    <cfRule dxfId="63" operator="equal" priority="62" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="59" operator="equal" priority="62" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule dxfId="62" operator="equal" priority="61" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="58" operator="equal" priority="61" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66 C66">
-    <cfRule dxfId="61" operator="equal" priority="60" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="57" operator="equal" priority="60" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule dxfId="60" operator="equal" priority="59" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="56" operator="equal" priority="59" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 C69">
-    <cfRule dxfId="59" operator="equal" priority="58" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="55" operator="equal" priority="58" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule dxfId="58" operator="equal" priority="57" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="54" operator="equal" priority="57" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72 C72">
-    <cfRule dxfId="57" operator="equal" priority="56" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="53" operator="equal" priority="56" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule dxfId="56" operator="equal" priority="55" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="52" operator="equal" priority="55" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75 C75">
-    <cfRule dxfId="55" operator="equal" priority="54" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="51" operator="equal" priority="54" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule dxfId="54" operator="equal" priority="53" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="50" operator="equal" priority="53" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78 C78">
-    <cfRule dxfId="53" operator="equal" priority="52" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="49" operator="equal" priority="52" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule dxfId="52" operator="equal" priority="51" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="48" operator="equal" priority="51" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81 C81">
-    <cfRule dxfId="51" operator="equal" priority="50" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="47" operator="equal" priority="50" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule dxfId="50" operator="equal" priority="49" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="46" operator="equal" priority="49" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84 C84">
-    <cfRule dxfId="49" operator="equal" priority="48" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="45" operator="equal" priority="48" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule dxfId="48" operator="equal" priority="47" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="44" operator="equal" priority="47" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87 C87">
-    <cfRule dxfId="47" operator="equal" priority="46" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="43" operator="equal" priority="46" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule dxfId="46" operator="equal" priority="45" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="42" operator="equal" priority="45" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90 C90">
-    <cfRule dxfId="45" operator="equal" priority="44" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="41" operator="equal" priority="44" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule dxfId="44" operator="equal" priority="43" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="40" operator="equal" priority="43" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93 C93">
-    <cfRule dxfId="43" operator="equal" priority="42" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="39" operator="equal" priority="42" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule dxfId="42" operator="equal" priority="41" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="38" operator="equal" priority="41" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96 C96">
-    <cfRule dxfId="41" operator="equal" priority="40" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="37" operator="equal" priority="40" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule dxfId="40" operator="equal" priority="39" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="36" operator="equal" priority="39" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99 C99">
-    <cfRule dxfId="39" operator="equal" priority="38" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="35" operator="equal" priority="38" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule dxfId="38" operator="equal" priority="37" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="34" operator="equal" priority="37" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102 C102">
-    <cfRule dxfId="37" operator="equal" priority="36" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="33" operator="equal" priority="36" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule dxfId="36" operator="equal" priority="35" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="32" operator="equal" priority="35" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105 C105">
-    <cfRule dxfId="35" operator="equal" priority="34" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="31" operator="equal" priority="34" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule dxfId="34" operator="equal" priority="33" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="30" operator="equal" priority="33" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108 C108">
-    <cfRule dxfId="33" operator="equal" priority="32" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="29" operator="equal" priority="32" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule dxfId="32" operator="equal" priority="31" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="28" operator="equal" priority="31" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111 C111">
-    <cfRule dxfId="31" operator="equal" priority="30" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="27" operator="equal" priority="30" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule dxfId="30" operator="equal" priority="29" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="26" operator="equal" priority="29" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114 C114">
-    <cfRule dxfId="29" operator="equal" priority="28" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="25" operator="equal" priority="28" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule dxfId="28" operator="equal" priority="27" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="24" operator="equal" priority="27" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 C117">
-    <cfRule dxfId="27" operator="equal" priority="26" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="23" operator="equal" priority="26" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule dxfId="26" operator="equal" priority="25" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="22" operator="equal" priority="25" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120 C120">
-    <cfRule dxfId="25" operator="equal" priority="22" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="21" operator="equal" priority="22" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule dxfId="24" operator="equal" priority="21" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="20" operator="equal" priority="21" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:AK63">
-    <cfRule dxfId="23" operator="equal" priority="20" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="19" operator="equal" priority="20" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:AK66">
-    <cfRule dxfId="22" operator="equal" priority="19" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="18" operator="equal" priority="19" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:AK69">
-    <cfRule dxfId="21" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="17" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:AK72">
-    <cfRule dxfId="20" operator="equal" priority="17" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="16" operator="equal" priority="17" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24781,43 +24750,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="143"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
     </row>
     <row r="3" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
-      <c r="B5" s="147" t="s">
+      <c r="A5" s="145"/>
+      <c r="B5" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147" t="s">
+      <c r="E5" s="144"/>
+      <c r="F5" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="147"/>
+      <c r="G5" s="144"/>
     </row>
     <row r="6" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="53" t="s">
         <v>88</v>
       </c>
@@ -24959,33 +24928,33 @@
       <c r="G17" s="55"/>
     </row>
     <row r="21" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="146"/>
-      <c r="B23" s="147" t="s">
+      <c r="A23" s="145"/>
+      <c r="B23" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147" t="s">
+      <c r="C23" s="144"/>
+      <c r="D23" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147" t="s">
+      <c r="E23" s="144"/>
+      <c r="F23" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="147"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="146"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="53" t="s">
         <v>88</v>
       </c>
@@ -25128,18 +25097,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
